--- a/Project 3/Job.xlsx
+++ b/Project 3/Job.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P3\indeed and Dice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1F60D-C0C5-47AD-905E-AB05805B8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D1C54-77DC-4E8C-8BF3-D3CC9CCF1FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17016" windowHeight="11340" xr2:uid="{02DC027E-BBF1-4B81-AACD-FFFA9B323F13}"/>
+    <workbookView xWindow="12" yWindow="888" windowWidth="8460" windowHeight="11196" xr2:uid="{02DC027E-BBF1-4B81-AACD-FFFA9B323F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
   <si>
     <t>JobTitles</t>
   </si>
@@ -51,199 +51,526 @@
     <t>Full-time</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>Company Size</t>
+  </si>
+  <si>
+    <t>Number Of Jobs</t>
+  </si>
+  <si>
+    <t>Post Date</t>
+  </si>
+  <si>
+    <t>Search Date</t>
+  </si>
+  <si>
+    <t>30+ days ago</t>
+  </si>
+  <si>
+    <t>more than 10,000</t>
+  </si>
+  <si>
+    <t>8 days ago</t>
+  </si>
+  <si>
+    <t>Entry-level Engineer</t>
+  </si>
+  <si>
+    <t>Woodard &amp; Curran</t>
+  </si>
+  <si>
+    <t>2175 N California Blvd, Walnut Creek, CA 94596</t>
+  </si>
+  <si>
+    <t>501 to 1,000</t>
+  </si>
+  <si>
+    <t>104 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=8d7db659be887918&amp;fccid=c7643478516b62af&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2 days ago</t>
+  </si>
+  <si>
+    <t>Entry Level Engineer</t>
+  </si>
+  <si>
+    <t>Tent Engineering</t>
+  </si>
+  <si>
+    <t>Tent Engineering in Bend, OR 97701</t>
+  </si>
+  <si>
+    <t>Tent Engineering size is not found.</t>
+  </si>
+  <si>
+    <t>1 job near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Tent-Engineering/jobs/Entry-Level-Engineer-fbecb1fc63341d36?fccid=c6f359813261853c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>1001 to 5,000</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Entry Level Civil Engineer</t>
+  </si>
+  <si>
+    <t>Mott MacDonald</t>
   </si>
   <si>
     <t>Remote</t>
   </si>
   <si>
-    <t>Job Type</t>
-  </si>
-  <si>
-    <t>Company Size</t>
-  </si>
-  <si>
-    <t>Number Of Jobs</t>
-  </si>
-  <si>
-    <t>Post Date</t>
-  </si>
-  <si>
-    <t>Search Date</t>
-  </si>
-  <si>
-    <t>Software Engineer - Entry Level</t>
-  </si>
-  <si>
-    <t>Per Scholas Inc.</t>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Engineer in Training (Entry-level), Structural</t>
+  </si>
+  <si>
+    <t>Simpson Gumpertz &amp; Heger</t>
+  </si>
+  <si>
+    <t>19 W 34th St, New York, NY 10001</t>
+  </si>
+  <si>
+    <t>Simpson Gumpertz &amp; Heger size is not found.</t>
+  </si>
+  <si>
+    <t>42 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=71d01d3e9af57e91&amp;fccid=9ce75e8744cdceb1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>6 jobs near United States</t>
+  </si>
+  <si>
+    <t>1 day ago</t>
   </si>
   <si>
     <t>51 to 200</t>
   </si>
   <si>
-    <t>57 jobs near United States</t>
-  </si>
-  <si>
-    <t>25 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=f17049a8371b95b9&amp;fccid=bdbf2111fecd24cc&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Software Engineer - Entry level - No Bachelors</t>
-  </si>
-  <si>
-    <t>Anvik Technologies Inc</t>
-  </si>
-  <si>
-    <t>Anvik Technologies Inc size is not found.</t>
-  </si>
-  <si>
-    <t>3 jobs near United States</t>
-  </si>
-  <si>
-    <t>30 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Anvik-Technologies-Inc/jobs/Software-Engineer-e3960ead4e663068?fccid=5540e1d1d7d2dd97&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>University Grad Software Engineer (USA)</t>
-  </si>
-  <si>
-    <t>Pinterest</t>
-  </si>
-  <si>
-    <t>1099 Stewart St, Seattle, WA 98101</t>
-  </si>
-  <si>
-    <t>Internship</t>
+    <t>Job type is not found.</t>
+  </si>
+  <si>
+    <t>3 days ago</t>
+  </si>
+  <si>
+    <t>Engineer 1</t>
+  </si>
+  <si>
+    <t>Miami-Dade County</t>
+  </si>
+  <si>
+    <t>1611 NW 12th Ave, Miami, FL 33136</t>
+  </si>
+  <si>
+    <t>108 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=b0b7898159e95714&amp;fccid=45c04be7e2c1a618&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>New York, NY 10259</t>
+  </si>
+  <si>
+    <t>1,085 jobs near United States</t>
+  </si>
+  <si>
+    <t>14 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=9da5c22934461dc3&amp;fccid=bafa4b35e9cd20ce&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry level engineer - water/wastewater</t>
+  </si>
+  <si>
+    <t>Lakewood, CO</t>
+  </si>
+  <si>
+    <t>221 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=3b990eaf6dc3df95&amp;fccid=edb4bf50a19b70a9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry Level Construction Project Engineer</t>
+  </si>
+  <si>
+    <t>Entry Level Engineer I (REMOTE)</t>
+  </si>
+  <si>
+    <t>TRC Companies</t>
+  </si>
+  <si>
+    <t>Lowell, MA 01854</t>
+  </si>
+  <si>
+    <t>723 jobs near United States</t>
+  </si>
+  <si>
+    <t>29 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=cceb4ff390fce14b&amp;fccid=0f5e6de249dd372f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Mechatronics Engineer</t>
+  </si>
+  <si>
+    <t>Squishy Robotics</t>
+  </si>
+  <si>
+    <t>2600 10th St Ste 308, Berkeley, CA 94710</t>
+  </si>
+  <si>
+    <t>Squishy Robotics size is not found.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=e01d48e9fe8b8608&amp;fccid=4112f68e43fb6dc8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Net2Aspire LLC</t>
+  </si>
+  <si>
+    <t>Net2Aspire LLC size is not found.</t>
+  </si>
+  <si>
+    <t>2 jobs near United States</t>
+  </si>
+  <si>
+    <t>27 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Net2Aspire-LLC/jobs/Mechanical-Engineer-463be676d961b619?fccid=c441de85456d51f0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>7 jobs near United States</t>
+  </si>
+  <si>
+    <t>Entry Level Structural Analysis Engineer</t>
+  </si>
+  <si>
+    <t>BOEING</t>
+  </si>
+  <si>
+    <t>Berkeley, MO</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=e61da8a8cb03eae0&amp;fccid=edae4285faf6c2f0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Propulsion — Associate Engineer (Spring 2022)</t>
+  </si>
+  <si>
+    <t>Astranis</t>
+  </si>
+  <si>
+    <t>98 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=b1060fd97370fbb6&amp;fccid=bc11c7f77a065fb8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Paulson Mitchell</t>
+  </si>
+  <si>
+    <t>85 Mill St Ste 200a, Roswell, GA 30075</t>
+  </si>
+  <si>
+    <t>11 to 50</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=41f11820805ff124&amp;fccid=f351f3fcc67c4805&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 1 (Cary, NC)</t>
+  </si>
+  <si>
+    <t>Garmin</t>
+  </si>
+  <si>
+    <t>Cary, NC</t>
+  </si>
+  <si>
+    <t>421 jobs near United States</t>
+  </si>
+  <si>
+    <t>23 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=b7c64e63a9e9d48c&amp;fccid=70a994275a3b9062&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2021-2022 Entry Level Engineer</t>
+  </si>
+  <si>
+    <t>Eichleay, Inc.</t>
+  </si>
+  <si>
+    <t>1390 Willow Pass Rd, Concord, CA 94520</t>
+  </si>
+  <si>
+    <t>Eichleay, Inc. size is not found.</t>
+  </si>
+  <si>
+    <t>36 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=3855ba913d038607&amp;fccid=a014b462d0cd0b9b&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Assistant Engineer I (Office) (Continuous)</t>
+  </si>
+  <si>
+    <t>City of Oakland, CA</t>
+  </si>
+  <si>
+    <t>Oakland, CA</t>
+  </si>
+  <si>
+    <t>28 jobs near United States</t>
+  </si>
+  <si>
+    <t>18 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=fddd0707bb722938&amp;fccid=ecf39f312b86cb18&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>PULLMAN</t>
   </si>
   <si>
     <t>201 to 500</t>
   </si>
   <si>
-    <t>183 jobs near United States</t>
-  </si>
-  <si>
-    <t>30+ days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=4b7d149a76d895ec&amp;fccid=43014b1412e0a7b6&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>PathAI</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>PathAI size is not found.</t>
-  </si>
-  <si>
-    <t>56 jobs near United States</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=360b132100f02094&amp;fccid=6498d5efff58e96b&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Entry Level Computer Programmer</t>
-  </si>
-  <si>
-    <t>Revature</t>
-  </si>
-  <si>
-    <t>Bowie, MD</t>
-  </si>
-  <si>
-    <t>Revature size is not found.</t>
-  </si>
-  <si>
-    <t>22 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BbIbu35rN4ToQZZxETN3tZlg0cK7iFEHC0AqmvhRxc6_RiK6STRcYZmOwwIBP1oQEEf5DlVE-E-CFT7k_BbWlzBIRb7Omp1qfZq0Gl3DI86G2AOoMx7EdZJmeeHWZPBfrVb98gQslXp5CE-e9TKIiVHXym_iwHy30fWw-slHZGQGXIZE9O2pb405esyZax3MR3IczByqf2a1zSq3vvlD1Auz3--Dd5nvk-df_IXFznw4yvNg5AUYArSBULlz20NXLTiAUTpIPBBNpaxPhfjimDqCXIXUgJJbKGjP8SQqDvMuqOfLJ3tzC-pxp4f2xa6XjWdvxnabg5H8wxwU5BDt2NtjlPr9F4eEEo47WXUGfPjgNhJC6HNmvuzGxcbUmA_F4r2j9KdjTi0RjXkkCMvIJYvrnmgwsgvfilR5zvkm5PacMDqCYpZlBarMu64KvPcpKIhpT83wS1Li3O8EU33mteJicmjw5FxyxYyoygLyyzBVZexWNhTYcos3GwA_UXic2Uz0LHv1QhXO7TvmRrp6iEYTOVeuY8yOpQvQ72VUqi0nvZdibFF80P3BiolBMCNaeAXlYJ0srwwSAzjFUbSxe801Gpekv5u_PMwTea8yNlfrFj5CAJPXvbZaF4dHvvTtAdS_A_VnYR87qzxqyAhrzsAaUTpcE_Q8xwJYLRd2CFicGO7sb2aU4O_IG4UOaKYjZedbxH2-BCEjgYOKRHfd9hesrEqhfkB3dKpX3UHqev4ty4fCIgKDI2qvdhxX6QOFLitHHvEURXxY48bJJAGaYrDpEhVfZoODGudB6I_e2OPpEQiESug-47E48EugskXEhigaYRkadidDSo-kzRKnKM0apm2P1WjO0lW_NZ1LLUlaQg0LMMHUpm3iETEjnBMyVt0hXXncYf1aaDiIWNGeczsL0-4ybgTy3u8TL_P4M_7SL_3RkcLkxlw-g8TE5C3b3mA9hZC-4NusTjA2vEc6gbb3pvA8sEmeQ=&amp;p=4&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Entry Level Embedded Software Engineer, TCLabs</t>
-  </si>
-  <si>
-    <t>Toyota Connected North America</t>
-  </si>
-  <si>
-    <t>Plano, TX</t>
-  </si>
-  <si>
-    <t>Toyota Connected North America size is not found.</t>
-  </si>
-  <si>
-    <t>1 day ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=c5dcd700c273205d&amp;fccid=dd616958bd9ddc12&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Junior Web Developer</t>
-  </si>
-  <si>
-    <t>Crunchapps</t>
-  </si>
-  <si>
-    <t>603 Greenwich St, New York, NY 10014</t>
-  </si>
-  <si>
-    <t>Crunchapps size is not found.</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=9e76e485b48fe6d0&amp;fccid=86ac0cdf17b42948&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Entry Level C++ Software Engineer- Remote Opportunity (US On...</t>
-  </si>
-  <si>
-    <t>Wolverine Trading</t>
-  </si>
-  <si>
-    <t>16 jobs near United States</t>
-  </si>
-  <si>
-    <t>5 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=2a4de12e3f3bef18&amp;fccid=1ec8c83c883d1273&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Software engineer</t>
-  </si>
-  <si>
-    <t>Sticker Mule</t>
-  </si>
-  <si>
-    <t>less than 10</t>
-  </si>
-  <si>
-    <t>7 jobs near United States</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=1756e7b0298d0eb8&amp;fccid=8363d1ab1997f5d7&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Entry Level - Associate Developer (Commercial): Front End</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>New York, NY 10001</t>
-  </si>
-  <si>
-    <t>more than 10,000</t>
-  </si>
-  <si>
-    <t>2,109 jobs near United States</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=b620216a4d50539e&amp;fccid=de71a49b535e21cb&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=1e081a0a9f64aefa&amp;fccid=13ca20ba2b0b89ef&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Junior Engineer (Design/Construction)</t>
+  </si>
+  <si>
+    <t>NYC Careers</t>
+  </si>
+  <si>
+    <t>30-30 Thomson Ave, Queens, NY 11101</t>
+  </si>
+  <si>
+    <t>NYC Careers size is not found.</t>
+  </si>
+  <si>
+    <t>1,141 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=c5b55588e7361c52&amp;fccid=f97367b3ac9546b1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry Level Jr. Robotics Engineer</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>1,446 jobs near United States</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5a65384f2fd7be27&amp;fccid=116680a29a847a70&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2,534 jobs near United States</t>
+  </si>
+  <si>
+    <t>Project Engineer - Entry Level Northern California Region 20...</t>
+  </si>
+  <si>
+    <t>The Walsh Group</t>
+  </si>
+  <si>
+    <t>396 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=08bea6cb260dbd35&amp;fccid=d60630bd711af133&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry Level Engineer-in-Training</t>
+  </si>
+  <si>
+    <t>Austin, TX 78703</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=021485d9f1a853da&amp;fccid=bafa4b35e9cd20ce&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry Level Industrial Engineer</t>
+  </si>
+  <si>
+    <t>Dreyer's Grand Ice Cream</t>
+  </si>
+  <si>
+    <t>Laurel, MD 20723</t>
+  </si>
+  <si>
+    <t>71 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=ecaa8a59b05ff3ce&amp;fccid=7f941d8d9ae302e6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Civil Engineer - Entry Level</t>
+  </si>
+  <si>
+    <t>Optimum Placement</t>
+  </si>
+  <si>
+    <t>Stockton, CA 95209</t>
+  </si>
+  <si>
+    <t>Optimum Placement size is not found.</t>
+  </si>
+  <si>
+    <t>18 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Optimum-Placement/jobs/Civil-Engineer-c61e1403cea958f6?fccid=607c25d15e10d1f2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Nowak &amp; Fraus Engineers</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Nowak &amp; Fraus Engineers size is not found.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=323bd253bc1308f2&amp;fccid=e6f7115dc6ffaad2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>ENTRY LEVEL CIVIL ENGINEER-IN-TRAINING</t>
+  </si>
+  <si>
+    <t>AEP Alliance Engineering and Planning</t>
+  </si>
+  <si>
+    <t>Alpharetta, GA</t>
+  </si>
+  <si>
+    <t>AEP Alliance Engineering and Planning size is not found.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=6c32bc7ee29bb80e&amp;fccid=5775d2ca0985d1db&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Civil Engineer 1 - Water - Bloomington</t>
+  </si>
+  <si>
+    <t>Black &amp; Veatch Corporation</t>
+  </si>
+  <si>
+    <t>Bloomington, MN 55435</t>
+  </si>
+  <si>
+    <t>655 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=0e5620211e661673&amp;fccid=3c6c62c1f9964388&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Structural Engineer – Entry Level</t>
+  </si>
+  <si>
+    <t>Gilsanz, Murray, Steficek</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Gilsanz, Murray, Steficek size is not found.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4e05bb3d766e2aff&amp;fccid=fb11eec01649268f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Industrial Engineer</t>
+  </si>
+  <si>
+    <t>NET2ASPIRE</t>
+  </si>
+  <si>
+    <t>NET2ASPIRE size is not found.</t>
+  </si>
+  <si>
+    <t>24 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/NET2ASPIRE/jobs/Industrial-Engineer-bf9a8558efcfb04a?fccid=866ff22d994484d1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry-Level Engineer</t>
+  </si>
+  <si>
+    <t>SCS Engineers</t>
+  </si>
+  <si>
+    <t>11260 Roger Bacon Dr, Reston, VA 20190</t>
+  </si>
+  <si>
+    <t>73 jobs near United States</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4a5030398138c564&amp;fccid=850595113330ad10&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Industrial Access Inc.</t>
+  </si>
+  <si>
+    <t>1465 Ventura Dr, Cumming, GA 30040</t>
+  </si>
+  <si>
+    <t>Industrial Access Inc. size is not found.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=af47bf7460d3f75b&amp;fccid=0dea200269ebb7d8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>MF01-111021 Jr. Validation Specialist/Engineer (Entry Level)</t>
+  </si>
+  <si>
+    <t>Validation &amp; Engineering Group</t>
+  </si>
+  <si>
+    <t>Cayey, PR 00737</t>
+  </si>
+  <si>
+    <t>143 jobs near United States</t>
+  </si>
+  <si>
+    <t>7 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=bce0f7495ecab933&amp;fccid=c3c9aa73aa3fddd2&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -610,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C06F6B-58D1-4AA2-9319-3C2FB408B610}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,19 +965,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -658,305 +985,885 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2">
-        <v>44517</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>44517</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>44517</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2">
-        <v>44517</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="H8" s="2">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="2">
-        <v>44517</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{0DAF282C-9D59-472F-B0A4-8BBCB9AEE588}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{B54F208D-FC5F-4147-9E94-06FCFBA7545D}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{2C70C973-8B07-45E0-973B-97C0DDB3BBAA}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{4565B8E8-EB94-487D-AB5E-D54ADB55E3EA}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{6D2E50DB-4802-4278-8C98-9DF17CB9BEEA}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{4AECCE09-441A-4D90-A42D-E3A7C7AAF08F}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{4A49BFFE-C00D-41EB-A0F0-06BD4911D6AC}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{22CD7EBF-032E-43CC-B6A1-48CF66CFDDE5}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{11D576CE-441D-4A12-AC67-4B056D177B68}"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://www.indeed.com/rc/clk?jk=f17049a8371b95b9&amp;fccid=bdbf2111fecd24cc&amp;vjs=3" xr:uid="{0DAF282C-9D59-472F-B0A4-8BBCB9AEE588}"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://www.indeed.com/company/Anvik-Technologies-Inc/jobs/Software-Engineer-e3960ead4e663068?fccid=5540e1d1d7d2dd97&amp;vjs=3" xr:uid="{B54F208D-FC5F-4147-9E94-06FCFBA7545D}"/>
+    <hyperlink ref="I4" r:id="rId3" display="https://www.indeed.com/rc/clk?jk=4b7d149a76d895ec&amp;fccid=43014b1412e0a7b6&amp;vjs=3" xr:uid="{2C70C973-8B07-45E0-973B-97C0DDB3BBAA}"/>
+    <hyperlink ref="I5" r:id="rId4" display="https://www.indeed.com/rc/clk?jk=360b132100f02094&amp;fccid=6498d5efff58e96b&amp;vjs=3" xr:uid="{4565B8E8-EB94-487D-AB5E-D54ADB55E3EA}"/>
+    <hyperlink ref="I7" r:id="rId5" display="https://www.indeed.com/rc/clk?jk=c5dcd700c273205d&amp;fccid=dd616958bd9ddc12&amp;vjs=3" xr:uid="{6D2E50DB-4802-4278-8C98-9DF17CB9BEEA}"/>
+    <hyperlink ref="I8" r:id="rId6" display="https://www.indeed.com/rc/clk?jk=9e76e485b48fe6d0&amp;fccid=86ac0cdf17b42948&amp;vjs=3" xr:uid="{4AECCE09-441A-4D90-A42D-E3A7C7AAF08F}"/>
+    <hyperlink ref="I9" r:id="rId7" display="https://www.indeed.com/rc/clk?jk=2a4de12e3f3bef18&amp;fccid=1ec8c83c883d1273&amp;vjs=3" xr:uid="{4A49BFFE-C00D-41EB-A0F0-06BD4911D6AC}"/>
+    <hyperlink ref="I10" r:id="rId8" display="https://www.indeed.com/rc/clk?jk=1756e7b0298d0eb8&amp;fccid=8363d1ab1997f5d7&amp;vjs=3" xr:uid="{22CD7EBF-032E-43CC-B6A1-48CF66CFDDE5}"/>
+    <hyperlink ref="I11" r:id="rId9" display="https://www.indeed.com/rc/clk?jk=b620216a4d50539e&amp;fccid=de71a49b535e21cb&amp;vjs=3" xr:uid="{11D576CE-441D-4A12-AC67-4B056D177B68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
